--- a/biology/Botanique/Rosé_des_prés/Rosé_des_prés.xlsx
+++ b/biology/Botanique/Rosé_des_prés/Rosé_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ros%C3%A9_des_pr%C3%A9s</t>
+          <t>Rosé_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agaric champêtre, Rosé-des-prés
-Agaricus campestris, le Rosé-des-prés, moins communémment l'Agaric champêtre, la Psalliote champêtre, le Champignon de rosée ou encore la Souris-rose[1] (au XIXe siècle), est une espèce de champignon (Fungi) basidiomycète du genre Agaricus dans la famille des Agaricaceae. Proche du Champignon de Paris (Agaricus bisporus), c'est un champignon comestible et commun, populaire mais très souvent confondu. Il est caractérisé par ses lames d'abord roses puis brunes à maturié, son anneau discret et la forme de son pied en fuseau.
-Le Rosé-des-prés est une espèce très recherchée mais dont l'identification est beaucoup plus ardue que ce que l'on pense. Nombre de cueilleurs le ramassent en pensant que les lames roses sont son seul critère d'identification, mais il partage ce critère avec bien d'autres espèces d'Agarics très ressemblants, dont certains sont même toxiques. Il existe une mauvaise idée préconçue quant à la facilité d'identification du Rosé-des-prés, persistant même chez les cueilleurs aguerris. C'est sûrement l'espèce ramassée communément entrainant le plus de confusions d'identification, notamment (mais pas que) avec le ressemblant et toxique Agaric jaunissant (Agaricus xanthodermus) qui est l'espèce entrainant le plus d'intoxications chaque année pour cause de cette confusion[2]. Si le jaunissement peut sembler un critère fiable pour exclure cette espèce, il est parfois dur à déceler selon les conditions, sans compter le fait que d'autres espèces toxiques d'Agarics ressemblants ne sont pas jaunissants. Contrairement à l'idée reçue, il n'est pas aisé d'identifier le Rosé-des-prés parmi la centaine d'espèces d'Agarics en France métropolitaine, dont beaucoup lui ressemblent si on ne connait pas précisement ses différents critères distinctifs. Beaucoup de personnes pensent manger des Rosés-des-prés en ayant ramassé en réalité une autre espèce d'Agaric, à la comestibilité simplement sans intêret dans la plupart des cas, mais renforçant donc l'idée du ramasseur dans sa capacité à reconnaître l'espèce. Cela entraîne un biais de confirmation ne l'encourageant pas à chercher les bons critères pour reconnaitre l'espèce, favorisant dans le futur une confusion avec un Agaric toxique faute de faire attention aux bons détails.
+Agaricus campestris, le Rosé-des-prés, moins communémment l'Agaric champêtre, la Psalliote champêtre, le Champignon de rosée ou encore la Souris-rose (au XIXe siècle), est une espèce de champignon (Fungi) basidiomycète du genre Agaricus dans la famille des Agaricaceae. Proche du Champignon de Paris (Agaricus bisporus), c'est un champignon comestible et commun, populaire mais très souvent confondu. Il est caractérisé par ses lames d'abord roses puis brunes à maturié, son anneau discret et la forme de son pied en fuseau.
+Le Rosé-des-prés est une espèce très recherchée mais dont l'identification est beaucoup plus ardue que ce que l'on pense. Nombre de cueilleurs le ramassent en pensant que les lames roses sont son seul critère d'identification, mais il partage ce critère avec bien d'autres espèces d'Agarics très ressemblants, dont certains sont même toxiques. Il existe une mauvaise idée préconçue quant à la facilité d'identification du Rosé-des-prés, persistant même chez les cueilleurs aguerris. C'est sûrement l'espèce ramassée communément entrainant le plus de confusions d'identification, notamment (mais pas que) avec le ressemblant et toxique Agaric jaunissant (Agaricus xanthodermus) qui est l'espèce entrainant le plus d'intoxications chaque année pour cause de cette confusion. Si le jaunissement peut sembler un critère fiable pour exclure cette espèce, il est parfois dur à déceler selon les conditions, sans compter le fait que d'autres espèces toxiques d'Agarics ressemblants ne sont pas jaunissants. Contrairement à l'idée reçue, il n'est pas aisé d'identifier le Rosé-des-prés parmi la centaine d'espèces d'Agarics en France métropolitaine, dont beaucoup lui ressemblent si on ne connait pas précisement ses différents critères distinctifs. Beaucoup de personnes pensent manger des Rosés-des-prés en ayant ramassé en réalité une autre espèce d'Agaric, à la comestibilité simplement sans intêret dans la plupart des cas, mais renforçant donc l'idée du ramasseur dans sa capacité à reconnaître l'espèce. Cela entraîne un biais de confirmation ne l'encourageant pas à chercher les bons critères pour reconnaitre l'espèce, favorisant dans le futur une confusion avec un Agaric toxique faute de faire attention aux bons détails.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ros%C3%A9_des_pr%C3%A9s</t>
+          <t>Rosé_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Agaricus campestris L.[3].
-Synonymes
-Agaricus campestris a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Agaricus campestris L..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agaricus campestris a pour synonymes :
 Agaricus arvensis var. villaticus (Brond.) Anon.
 Agaricus bisporus subsp. albidus (J.E.Lange) Singer, 1961
 Agaricus bisporus subsp. avellaneus (J.E.Lange) Singer, 1961
@@ -556,47 +605,154 @@
 Psalliota hortensis subsp. bispora J.E.Lange, 1926
 Psalliota villatica var. roseola Rick
 Psalliota villatica (Brond.) Bres.
-Phylogénie
-Cette espèce a été initialement décrite et nommée en 1753 par Carl Linnaeus sous le nom d'Agaricus campestris.
-Étymologie
-L'épithète spécifique vient du latin campestris : plaine et par extension champ donc qui pousse dans les champs, champêtre[4].
-Noms vulgaires et vernaculaires
-Les noms vernaculaires d'Agaricus campestris sont: Rosé-des-Prés, Agaric champêtre, Psalliote champêtre, Champignon de rosée, Souris rose, Petit rosé. En Occitan, il est appelé Bosiguet (prononcé : "bouziguét") ou Pradelet ("padélét"). En anglais, il est appelé Field mushroom ou Meadow mushroom.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ros%C3%A9_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été initialement décrite et nommée en 1753 par Carl Linnaeus sous le nom d'Agaricus campestris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique vient du latin campestris : plaine et par extension champ donc qui pousse dans les champs, champêtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms vernaculaires d'Agaricus campestris sont: Rosé-des-Prés, Agaric champêtre, Psalliote champêtre, Champignon de rosée, Souris rose, Petit rosé. En Occitan, il est appelé Bosiguet (prononcé : "bouziguét") ou Pradelet ("padélét"). En anglais, il est appelé Field mushroom ou Meadow mushroom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon qui présente un pied et un chapeau. Le pied est central. Sous le chapeau, l'hyménophore est constitué de lames libres, serrées et inégales, c'est-à-dire qu'il y a des lamelles qui sont plus courtes.
-Son chapeau mesure 4 à 10 cm, il est fibrilleux ou un peu méchuleux, de couleur blanc pur puis blanc-rose ou blanc grisâtre en vieillissant[5]. Sa marge est longtemps enroulée et déborde un peu du chapeau, parfois. Sa forme est d'abord hémisphérique à convexe puis devient plat avec le temps
-L'hyménophore est fait de lames libres, de couleur rose vif à rose saumon puis brunes avec l'âge[5]. Sa sporée est brune.
-Son stipe mesure 4 à 10 cm x 0,8 à 2 cm, de couleur blanc, parfois crème, lisse, allant en s'amincissant vers la base (en fuseau), portant un anneau blanc membraneux ascendant, court et fragile, incomplet, mal formé et souvent vite disparu[5]. Il est séparable du chapeau.
-La chair est blanchâtre, rougissante légèrement et lentement à la coupe, épaisse et pleine. Sa saveur est douce et fongique[5] et son odeur est agréable, fongique, rappelant le "Champignon de Paris".
+Son chapeau mesure 4 à 10 cm, il est fibrilleux ou un peu méchuleux, de couleur blanc pur puis blanc-rose ou blanc grisâtre en vieillissant. Sa marge est longtemps enroulée et déborde un peu du chapeau, parfois. Sa forme est d'abord hémisphérique à convexe puis devient plat avec le temps
+L'hyménophore est fait de lames libres, de couleur rose vif à rose saumon puis brunes avec l'âge. Sa sporée est brune.
+Son stipe mesure 4 à 10 cm x 0,8 à 2 cm, de couleur blanc, parfois crème, lisse, allant en s'amincissant vers la base (en fuseau), portant un anneau blanc membraneux ascendant, court et fragile, incomplet, mal formé et souvent vite disparu. Il est séparable du chapeau.
+La chair est blanchâtre, rougissante légèrement et lentement à la coupe, épaisse et pleine. Sa saveur est douce et fongique et son odeur est agréable, fongique, rappelant le "Champignon de Paris".
 	Principaux caractères distinctifs
 			Chapeau blanchâtre légèrement méchuleux.
 			Lames tout d'abord rosées...
@@ -604,8 +760,43 @@
 			Anneau discret, très peu étendu, fugace, parfois même absent. Jamais très étendu.
 			Pied obligatoirement en forme de fuseau, jamais en forme de bulbe.
 			Chair blanche non jaunissante à la coupe/grattage, odeur douce.
-Caractéristiques microscopiques
-Ses spores mesurent 6,5 à 8,5 µm × 4,5 à 4,6 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rosé_des_prés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 6,5 à 8,5 µm × 4,5 à 4,6 µm.
 </t>
         </is>
       </c>
